--- a/biology/Zoologie/Faune_en_Floride/Faune_en_Floride.xlsx
+++ b/biology/Zoologie/Faune_en_Floride/Faune_en_Floride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Floride compte 141 espèces de reptiles et d’amphibiens[1], 250 espèces de poissons[2], 498 espèces d'oiseaux[3], dont 179 espèces qui nichent en Floride[4] et 1 500 espèces de vertébrés[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Floride compte 141 espèces de reptiles et d’amphibiens, 250 espèces de poissons, 498 espèces d'oiseaux, dont 179 espèces qui nichent en Floride et 1 500 espèces de vertébrés.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grâce à la présence de nombreuses zones humides (Everglades, etc.), son climat chaud, ses îles et ses récifs coralliens, la Floride regorge de nombreux biotopes qui permettent à une faune spécifique de s'y développer. La mangrove accueille par exemple le pélican blanc d'Amérique, le balbuzard pêcheur, le cormoran et le pygargue à tête blanche. Le raton laveur se nourrit des coquillages. Les crabes violonistes se cachent dans le sol à marée basse en favorisant l'oxygénation du sol bénéfique pour les arbres[6]. La faune de Floride attire de nombreux touristes notamment dans le parc national des Everglades mais aussi dans les parcs de Biscayne et de Dry Tortugas. Les nombreux lacs de l'État sont parfois peuplés de l'Alligator d'Amérique qui peut atteindre près de quatre mètres tandis que le plus rare crocodile américain évolue au sud de la Floride. La panthère de Floride est également devenue très rare et est menacée comme de nombreuses espèces[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grâce à la présence de nombreuses zones humides (Everglades, etc.), son climat chaud, ses îles et ses récifs coralliens, la Floride regorge de nombreux biotopes qui permettent à une faune spécifique de s'y développer. La mangrove accueille par exemple le pélican blanc d'Amérique, le balbuzard pêcheur, le cormoran et le pygargue à tête blanche. Le raton laveur se nourrit des coquillages. Les crabes violonistes se cachent dans le sol à marée basse en favorisant l'oxygénation du sol bénéfique pour les arbres. La faune de Floride attire de nombreux touristes notamment dans le parc national des Everglades mais aussi dans les parcs de Biscayne et de Dry Tortugas. Les nombreux lacs de l'État sont parfois peuplés de l'Alligator d'Amérique qui peut atteindre près de quatre mètres tandis que le plus rare crocodile américain évolue au sud de la Floride. La panthère de Floride est également devenue très rare et est menacée comme de nombreuses espèces.
 Grâce à la présence de nombreuses zones humides et à son climat chaud, la Floride est également le paradis pour de nombreux insectes et notamment pour les moustiques. De la fin du printemps jusqu'au début de l'été, plusieurs espèces de moustiques sont ainsi véritablement gênantes pour les habitants et les touristes.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Espèces principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammifères marins: grand dauphin, baleine pilote à nageoires courtes, baleine franche de l'Atlantique Nord, lamantin des Antilles
 Mammifères: panthère de Floride, loutre de rivière du Nord, vison d'Amérique, lapin à queue blanche, lapin des marais, raton laveur, mouffette rayée, écureuil, cerf de Virginie, cerf des Keys (endémique), lynx roux, renard roux, renard gris, coyote, ours noir de Floride (la population est passée d'un minimum historique de 300 dans les années 1970 à 3 000 en 2011), tatou à neuf bandes, opossum de Virginie, sanglier
@@ -577,10 +593,12 @@
           <t>Espèces protégées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Endangered Species Act a été voté 1976 pour protéger les espèces menacées. Actuellement, 118 espèces sont classées comme Espèce menacée[7]
-Liste des espèces protégées en Floride[8] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Endangered Species Act a été voté 1976 pour protéger les espèces menacées. Actuellement, 118 espèces sont classées comme Espèce menacée
+Liste des espèces protégées en Floride : 
 Poissons :
 Esturgeon à museau court (Acipenser brevirostrum)
 Notropis melanostomus
@@ -626,7 +644,7 @@
 Cyclargus thomasi bethunebakeri
 Heraclides aristodemus ponceanus
 Orthalicus reses (mollusque)
-L'alligator d'Amérique fréquente les eaux douces marécageuses mais on le rencontre aussi dans les rivières ou les lacs. Le Crocodile américain est une espèce protégée qui compte environ 2 000 individus en Floride[9]. Les milieux humides abritent de nombreuses espèces aquacoles (pélicans, aigle à tête blanche, balbuzard pêcheur, chouette des marais, gallinule violette d'Amérique) et d'échassiers (aigrettes neigeuses, héron cendré et grand Héron, flamants roses). Les animaux symboles de l'État sont la Panthère de Floride, le Moqueur polyglotte, l' Heliconius charithonia, l'Achigan à grande bouche, le Voilier de l'Atlantique, le Lamantin de Floride, le Marsouin et le Pleuroploca gigantea.
+L'alligator d'Amérique fréquente les eaux douces marécageuses mais on le rencontre aussi dans les rivières ou les lacs. Le Crocodile américain est une espèce protégée qui compte environ 2 000 individus en Floride. Les milieux humides abritent de nombreuses espèces aquacoles (pélicans, aigle à tête blanche, balbuzard pêcheur, chouette des marais, gallinule violette d'Amérique) et d'échassiers (aigrettes neigeuses, héron cendré et grand Héron, flamants roses). Les animaux symboles de l'État sont la Panthère de Floride, le Moqueur polyglotte, l' Heliconius charithonia, l'Achigan à grande bouche, le Voilier de l'Atlantique, le Lamantin de Floride, le Marsouin et le Pleuroploca gigantea.
 			Crocodile américain
 			Panthère de Floride
 			Cerf des Keys
@@ -659,9 +677,11 @@
           <t>Espèces invasives</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La Florida Fish and Wildlife Commission recense 31 espèces de mammifères[10] 196 espèces d'oiseaux[11], 48 espèces de reptiles[12], quatre espèces d'amphibiens[13] et 55 espèces de poissons[14] qui ne sont pas originaires de Floride. Parmi les espèces les plus dangereuses pour l'environnement : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Florida Fish and Wildlife Commission recense 31 espèces de mammifères 196 espèces d'oiseaux, 48 espèces de reptiles, quatre espèces d'amphibiens et 55 espèces de poissons qui ne sont pas originaires de Floride. Parmi les espèces les plus dangereuses pour l'environnement : 
 Bufo marinus
 Rat de Gambie (Cricetomys gambianus)
 Varan du Nil (Varanus niloticus)
